--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384F6A00-6EE1-4015-B857-17252E596F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42DFA1-5AD2-4CEE-A4A2-B82C7A707302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A6DA7BF-2623-49FE-942E-939F1474AE46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="322">
   <si>
     <t>LiveSLR Study ID</t>
   </si>
@@ -994,6 +994,18 @@
   </si>
   <si>
     <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>Uncertainty Type</t>
+  </si>
+  <si>
+    <t>Uncertainty Value Low</t>
+  </si>
+  <si>
+    <t>Uncertainty Value High</t>
+  </si>
+  <si>
+    <t>95% CI</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1545A01-20B4-488F-9481-5F47F3256A0E}">
   <dimension ref="A1:DU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="DB2" sqref="DB2:DB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1513,7 +1525,7 @@
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:125" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,13 +1842,13 @@
         <v>62</v>
       </c>
       <c r="DB1" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="DC1" s="7" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="DD1" s="7" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="DE1" s="7" t="s">
         <v>44</v>
@@ -2207,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="DB2" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC2" s="10" t="s">
         <v>139</v>
@@ -2480,7 +2492,7 @@
         <v>87</v>
       </c>
       <c r="DB3" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC3" s="10" t="s">
         <v>162</v>
@@ -2849,7 +2861,7 @@
         <v>139</v>
       </c>
       <c r="DB4" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC4" s="10" t="s">
         <v>186</v>
@@ -3122,7 +3134,7 @@
         <v>204</v>
       </c>
       <c r="DB5" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC5" s="10" t="s">
         <v>187</v>
@@ -3491,7 +3503,7 @@
         <v>139</v>
       </c>
       <c r="DB6" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC6" s="10" t="s">
         <v>186</v>
@@ -3764,7 +3776,7 @@
         <v>204</v>
       </c>
       <c r="DB7" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC7" s="10" t="s">
         <v>187</v>
@@ -5040,7 +5052,7 @@
         <v>87</v>
       </c>
       <c r="DB11" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC11" s="10" t="s">
         <v>186</v>
@@ -5313,7 +5325,7 @@
         <v>87</v>
       </c>
       <c r="DB12" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC12" s="10" t="s">
         <v>187</v>
@@ -5682,7 +5694,7 @@
         <v>272</v>
       </c>
       <c r="DB13" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC13" s="10" t="s">
         <v>186</v>
@@ -5955,7 +5967,7 @@
         <v>180</v>
       </c>
       <c r="DB14" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC14" s="10" t="s">
         <v>187</v>
@@ -6324,7 +6336,7 @@
         <v>87</v>
       </c>
       <c r="DB15" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC15" s="10" t="s">
         <v>186</v>
@@ -6597,7 +6609,7 @@
         <v>87</v>
       </c>
       <c r="DB16" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC16" s="10" t="s">
         <v>187</v>
@@ -6966,7 +6978,7 @@
         <v>139</v>
       </c>
       <c r="DB17" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC17" s="10" t="s">
         <v>186</v>
@@ -7239,7 +7251,7 @@
         <v>139</v>
       </c>
       <c r="DB18" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC18" s="10" t="s">
         <v>186</v>
@@ -7504,7 +7516,7 @@
         <v>204</v>
       </c>
       <c r="DB19" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC19" s="10" t="s">
         <v>187</v>
@@ -7873,7 +7885,7 @@
         <v>87</v>
       </c>
       <c r="DB20" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC20" s="10" t="s">
         <v>186</v>
@@ -8146,7 +8158,7 @@
         <v>87</v>
       </c>
       <c r="DB21" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC21" s="10" t="s">
         <v>187</v>
@@ -8515,7 +8527,7 @@
         <v>87</v>
       </c>
       <c r="DB22" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC22" s="10" t="s">
         <v>186</v>
@@ -8788,7 +8800,7 @@
         <v>87</v>
       </c>
       <c r="DB23" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC23" s="10" t="s">
         <v>187</v>
@@ -9157,7 +9169,7 @@
         <v>139</v>
       </c>
       <c r="DB24" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC24" s="10" t="s">
         <v>186</v>
@@ -9430,7 +9442,7 @@
         <v>139</v>
       </c>
       <c r="DB25" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC25" s="10" t="s">
         <v>186</v>
@@ -9695,7 +9707,7 @@
         <v>204</v>
       </c>
       <c r="DB26" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="DC26" s="10" t="s">
         <v>187</v>
@@ -9749,56 +9761,548 @@
     </row>
   </sheetData>
   <mergeCells count="616">
-    <mergeCell ref="DP24:DP26"/>
-    <mergeCell ref="DU24:DU26"/>
-    <mergeCell ref="CT24:CT26"/>
-    <mergeCell ref="CU24:CU26"/>
-    <mergeCell ref="CV24:CV26"/>
-    <mergeCell ref="CZ24:CZ26"/>
-    <mergeCell ref="DL24:DL26"/>
-    <mergeCell ref="DN24:DN26"/>
-    <mergeCell ref="BU24:BU26"/>
-    <mergeCell ref="CG24:CG26"/>
-    <mergeCell ref="CO24:CO26"/>
-    <mergeCell ref="CP24:CP26"/>
-    <mergeCell ref="CQ24:CQ26"/>
-    <mergeCell ref="CS24:CS26"/>
-    <mergeCell ref="BK24:BK26"/>
-    <mergeCell ref="BL24:BL26"/>
-    <mergeCell ref="BN24:BN26"/>
-    <mergeCell ref="BO24:BO26"/>
-    <mergeCell ref="BP24:BP26"/>
-    <mergeCell ref="BQ24:BQ26"/>
-    <mergeCell ref="AQ24:AQ26"/>
-    <mergeCell ref="AR24:AR26"/>
-    <mergeCell ref="AS24:AS26"/>
-    <mergeCell ref="AW24:AW26"/>
-    <mergeCell ref="BB24:BB26"/>
-    <mergeCell ref="BJ24:BJ26"/>
-    <mergeCell ref="AI24:AI26"/>
-    <mergeCell ref="AJ24:AJ26"/>
-    <mergeCell ref="AL24:AL26"/>
-    <mergeCell ref="AM24:AM26"/>
-    <mergeCell ref="AN24:AN26"/>
-    <mergeCell ref="AP24:AP26"/>
-    <mergeCell ref="T24:T26"/>
-    <mergeCell ref="U24:U26"/>
-    <mergeCell ref="Z24:Z26"/>
-    <mergeCell ref="AB24:AB26"/>
-    <mergeCell ref="AD24:AD26"/>
-    <mergeCell ref="AF24:AF26"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="DP2:DP3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CZ2:CZ3"/>
+    <mergeCell ref="DL2:DL3"/>
+    <mergeCell ref="DN2:DN3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="CV4:CV5"/>
+    <mergeCell ref="CZ4:CZ5"/>
+    <mergeCell ref="DL4:DL5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="DP6:DP7"/>
+    <mergeCell ref="DU6:DU7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="CT6:CT7"/>
+    <mergeCell ref="CU6:CU7"/>
+    <mergeCell ref="CV6:CV7"/>
+    <mergeCell ref="CZ6:CZ7"/>
+    <mergeCell ref="DL6:DL7"/>
+    <mergeCell ref="DN6:DN7"/>
+    <mergeCell ref="BU6:BU7"/>
+    <mergeCell ref="CG6:CG7"/>
+    <mergeCell ref="CO6:CO7"/>
+    <mergeCell ref="CP6:CP7"/>
+    <mergeCell ref="CQ6:CQ7"/>
+    <mergeCell ref="CS6:CS7"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="AP8:AP10"/>
+    <mergeCell ref="AQ8:AQ10"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AI8:AI10"/>
+    <mergeCell ref="AJ8:AJ10"/>
+    <mergeCell ref="DN8:DN10"/>
+    <mergeCell ref="DP8:DP10"/>
+    <mergeCell ref="DU8:DU10"/>
+    <mergeCell ref="CO8:CO10"/>
+    <mergeCell ref="CP8:CP10"/>
+    <mergeCell ref="CQ8:CQ10"/>
+    <mergeCell ref="CS8:CS10"/>
+    <mergeCell ref="CT8:CT10"/>
+    <mergeCell ref="CU8:CU10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="CV8:CV10"/>
+    <mergeCell ref="CZ8:CZ10"/>
+    <mergeCell ref="DL8:DL10"/>
+    <mergeCell ref="BN8:BN10"/>
+    <mergeCell ref="BO8:BO10"/>
+    <mergeCell ref="BP8:BP10"/>
+    <mergeCell ref="BQ8:BQ10"/>
+    <mergeCell ref="BU8:BU10"/>
+    <mergeCell ref="CG8:CG10"/>
+    <mergeCell ref="AS8:AS10"/>
+    <mergeCell ref="AW8:AW10"/>
+    <mergeCell ref="BB8:BB10"/>
+    <mergeCell ref="BJ8:BJ10"/>
+    <mergeCell ref="BK8:BK10"/>
+    <mergeCell ref="BL8:BL10"/>
+    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="BN11:BN12"/>
+    <mergeCell ref="BO11:BO12"/>
+    <mergeCell ref="BP11:BP12"/>
+    <mergeCell ref="BQ11:BQ12"/>
+    <mergeCell ref="AQ11:AQ12"/>
+    <mergeCell ref="AR11:AR12"/>
+    <mergeCell ref="AS11:AS12"/>
+    <mergeCell ref="AW11:AW12"/>
+    <mergeCell ref="BB11:BB12"/>
+    <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="DP11:DP12"/>
+    <mergeCell ref="DU11:DU12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="CT11:CT12"/>
+    <mergeCell ref="CU11:CU12"/>
+    <mergeCell ref="CV11:CV12"/>
+    <mergeCell ref="CZ11:CZ12"/>
+    <mergeCell ref="DL11:DL12"/>
+    <mergeCell ref="DN11:DN12"/>
+    <mergeCell ref="BU11:BU12"/>
+    <mergeCell ref="CG11:CG12"/>
+    <mergeCell ref="CO11:CO12"/>
+    <mergeCell ref="CP11:CP12"/>
+    <mergeCell ref="CQ11:CQ12"/>
+    <mergeCell ref="CS11:CS12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="DN13:DN14"/>
+    <mergeCell ref="DP13:DP14"/>
+    <mergeCell ref="DU13:DU14"/>
+    <mergeCell ref="CO13:CO14"/>
+    <mergeCell ref="CP13:CP14"/>
+    <mergeCell ref="CQ13:CQ14"/>
+    <mergeCell ref="CS13:CS14"/>
+    <mergeCell ref="CT13:CT14"/>
+    <mergeCell ref="CU13:CU14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="CV13:CV14"/>
+    <mergeCell ref="CZ13:CZ14"/>
+    <mergeCell ref="DL13:DL14"/>
+    <mergeCell ref="BN13:BN14"/>
+    <mergeCell ref="BO13:BO14"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BU13:BU14"/>
+    <mergeCell ref="CG13:CG14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BK13:BK14"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="AN15:AN16"/>
+    <mergeCell ref="AP15:AP16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="Z15:Z16"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AD15:AD16"/>
+    <mergeCell ref="AF15:AF16"/>
+    <mergeCell ref="BN15:BN16"/>
+    <mergeCell ref="BO15:BO16"/>
+    <mergeCell ref="BP15:BP16"/>
+    <mergeCell ref="BQ15:BQ16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="BJ15:BJ16"/>
+    <mergeCell ref="DP15:DP16"/>
+    <mergeCell ref="DU15:DU16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="CT15:CT16"/>
+    <mergeCell ref="CU15:CU16"/>
+    <mergeCell ref="CV15:CV16"/>
+    <mergeCell ref="CZ15:CZ16"/>
+    <mergeCell ref="DL15:DL16"/>
+    <mergeCell ref="DN15:DN16"/>
+    <mergeCell ref="BU15:BU16"/>
+    <mergeCell ref="CG15:CG16"/>
+    <mergeCell ref="CO15:CO16"/>
+    <mergeCell ref="CP15:CP16"/>
+    <mergeCell ref="CQ15:CQ16"/>
+    <mergeCell ref="CS15:CS16"/>
+    <mergeCell ref="BK15:BK16"/>
+    <mergeCell ref="BL15:BL16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="AP17:AP19"/>
+    <mergeCell ref="AQ17:AQ19"/>
+    <mergeCell ref="AR17:AR19"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AI17:AI19"/>
+    <mergeCell ref="AJ17:AJ19"/>
+    <mergeCell ref="DN17:DN19"/>
+    <mergeCell ref="DP17:DP19"/>
+    <mergeCell ref="DU17:DU19"/>
+    <mergeCell ref="CO17:CO19"/>
+    <mergeCell ref="CP17:CP19"/>
+    <mergeCell ref="CQ17:CQ19"/>
+    <mergeCell ref="CS17:CS19"/>
+    <mergeCell ref="CT17:CT19"/>
+    <mergeCell ref="CU17:CU19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="CV17:CV19"/>
+    <mergeCell ref="CZ17:CZ19"/>
+    <mergeCell ref="DL17:DL19"/>
+    <mergeCell ref="BN17:BN19"/>
+    <mergeCell ref="BO17:BO19"/>
+    <mergeCell ref="BP17:BP19"/>
+    <mergeCell ref="BQ17:BQ19"/>
+    <mergeCell ref="BU17:BU19"/>
+    <mergeCell ref="CG17:CG19"/>
+    <mergeCell ref="AS17:AS19"/>
+    <mergeCell ref="AW17:AW19"/>
+    <mergeCell ref="BB17:BB19"/>
+    <mergeCell ref="BJ17:BJ19"/>
+    <mergeCell ref="BK17:BK19"/>
+    <mergeCell ref="BL17:BL19"/>
+    <mergeCell ref="AL17:AL19"/>
+    <mergeCell ref="AM17:AM19"/>
+    <mergeCell ref="AN17:AN19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="BN20:BN21"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BQ20:BQ21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AS20:AS21"/>
+    <mergeCell ref="AW20:AW21"/>
+    <mergeCell ref="BB20:BB21"/>
+    <mergeCell ref="BJ20:BJ21"/>
+    <mergeCell ref="DP20:DP21"/>
+    <mergeCell ref="DU20:DU21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="CT20:CT21"/>
+    <mergeCell ref="CU20:CU21"/>
+    <mergeCell ref="CV20:CV21"/>
+    <mergeCell ref="CZ20:CZ21"/>
+    <mergeCell ref="DL20:DL21"/>
+    <mergeCell ref="DN20:DN21"/>
+    <mergeCell ref="BU20:BU21"/>
+    <mergeCell ref="CG20:CG21"/>
+    <mergeCell ref="CO20:CO21"/>
+    <mergeCell ref="CP20:CP21"/>
+    <mergeCell ref="CQ20:CQ21"/>
+    <mergeCell ref="CS20:CS21"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="AI22:AI23"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="DN22:DN23"/>
+    <mergeCell ref="DP22:DP23"/>
+    <mergeCell ref="DU22:DU23"/>
+    <mergeCell ref="CO22:CO23"/>
+    <mergeCell ref="CP22:CP23"/>
+    <mergeCell ref="CQ22:CQ23"/>
+    <mergeCell ref="CS22:CS23"/>
+    <mergeCell ref="CT22:CT23"/>
+    <mergeCell ref="CU22:CU23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -9823,548 +10327,56 @@
     <mergeCell ref="AL22:AL23"/>
     <mergeCell ref="AM22:AM23"/>
     <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="DN22:DN23"/>
-    <mergeCell ref="DP22:DP23"/>
-    <mergeCell ref="DU22:DU23"/>
-    <mergeCell ref="CO22:CO23"/>
-    <mergeCell ref="CP22:CP23"/>
-    <mergeCell ref="CQ22:CQ23"/>
-    <mergeCell ref="CS22:CS23"/>
-    <mergeCell ref="CT22:CT23"/>
-    <mergeCell ref="CU22:CU23"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="AI22:AI23"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="DP20:DP21"/>
-    <mergeCell ref="DU20:DU21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="CT20:CT21"/>
-    <mergeCell ref="CU20:CU21"/>
-    <mergeCell ref="CV20:CV21"/>
-    <mergeCell ref="CZ20:CZ21"/>
-    <mergeCell ref="DL20:DL21"/>
-    <mergeCell ref="DN20:DN21"/>
-    <mergeCell ref="BU20:BU21"/>
-    <mergeCell ref="CG20:CG21"/>
-    <mergeCell ref="CO20:CO21"/>
-    <mergeCell ref="CP20:CP21"/>
-    <mergeCell ref="CQ20:CQ21"/>
-    <mergeCell ref="CS20:CS21"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BN20:BN21"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BQ20:BQ21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AS20:AS21"/>
-    <mergeCell ref="AW20:AW21"/>
-    <mergeCell ref="BB20:BB21"/>
-    <mergeCell ref="BJ20:BJ21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="CV17:CV19"/>
-    <mergeCell ref="CZ17:CZ19"/>
-    <mergeCell ref="DL17:DL19"/>
-    <mergeCell ref="BN17:BN19"/>
-    <mergeCell ref="BO17:BO19"/>
-    <mergeCell ref="BP17:BP19"/>
-    <mergeCell ref="BQ17:BQ19"/>
-    <mergeCell ref="BU17:BU19"/>
-    <mergeCell ref="CG17:CG19"/>
-    <mergeCell ref="AS17:AS19"/>
-    <mergeCell ref="AW17:AW19"/>
-    <mergeCell ref="BB17:BB19"/>
-    <mergeCell ref="BJ17:BJ19"/>
-    <mergeCell ref="BK17:BK19"/>
-    <mergeCell ref="BL17:BL19"/>
-    <mergeCell ref="AL17:AL19"/>
-    <mergeCell ref="AM17:AM19"/>
-    <mergeCell ref="AN17:AN19"/>
-    <mergeCell ref="DN17:DN19"/>
-    <mergeCell ref="DP17:DP19"/>
-    <mergeCell ref="DU17:DU19"/>
-    <mergeCell ref="CO17:CO19"/>
-    <mergeCell ref="CP17:CP19"/>
-    <mergeCell ref="CQ17:CQ19"/>
-    <mergeCell ref="CS17:CS19"/>
-    <mergeCell ref="CT17:CT19"/>
-    <mergeCell ref="CU17:CU19"/>
-    <mergeCell ref="AP17:AP19"/>
-    <mergeCell ref="AQ17:AQ19"/>
-    <mergeCell ref="AR17:AR19"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AF17:AF19"/>
-    <mergeCell ref="AI17:AI19"/>
-    <mergeCell ref="AJ17:AJ19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="DP15:DP16"/>
-    <mergeCell ref="DU15:DU16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="CT15:CT16"/>
-    <mergeCell ref="CU15:CU16"/>
-    <mergeCell ref="CV15:CV16"/>
-    <mergeCell ref="CZ15:CZ16"/>
-    <mergeCell ref="DL15:DL16"/>
-    <mergeCell ref="DN15:DN16"/>
-    <mergeCell ref="BU15:BU16"/>
-    <mergeCell ref="CG15:CG16"/>
-    <mergeCell ref="CO15:CO16"/>
-    <mergeCell ref="CP15:CP16"/>
-    <mergeCell ref="CQ15:CQ16"/>
-    <mergeCell ref="CS15:CS16"/>
-    <mergeCell ref="BK15:BK16"/>
-    <mergeCell ref="BL15:BL16"/>
-    <mergeCell ref="BN15:BN16"/>
-    <mergeCell ref="BO15:BO16"/>
-    <mergeCell ref="BP15:BP16"/>
-    <mergeCell ref="BQ15:BQ16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="BJ15:BJ16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="AN15:AN16"/>
-    <mergeCell ref="AP15:AP16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="Z15:Z16"/>
-    <mergeCell ref="AB15:AB16"/>
-    <mergeCell ref="AD15:AD16"/>
-    <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="CV13:CV14"/>
-    <mergeCell ref="CZ13:CZ14"/>
-    <mergeCell ref="DL13:DL14"/>
-    <mergeCell ref="BN13:BN14"/>
-    <mergeCell ref="BO13:BO14"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BU13:BU14"/>
-    <mergeCell ref="CG13:CG14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BK13:BK14"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="DN13:DN14"/>
-    <mergeCell ref="DP13:DP14"/>
-    <mergeCell ref="DU13:DU14"/>
-    <mergeCell ref="CO13:CO14"/>
-    <mergeCell ref="CP13:CP14"/>
-    <mergeCell ref="CQ13:CQ14"/>
-    <mergeCell ref="CS13:CS14"/>
-    <mergeCell ref="CT13:CT14"/>
-    <mergeCell ref="CU13:CU14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="DP11:DP12"/>
-    <mergeCell ref="DU11:DU12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="CT11:CT12"/>
-    <mergeCell ref="CU11:CU12"/>
-    <mergeCell ref="CV11:CV12"/>
-    <mergeCell ref="CZ11:CZ12"/>
-    <mergeCell ref="DL11:DL12"/>
-    <mergeCell ref="DN11:DN12"/>
-    <mergeCell ref="BU11:BU12"/>
-    <mergeCell ref="CG11:CG12"/>
-    <mergeCell ref="CO11:CO12"/>
-    <mergeCell ref="CP11:CP12"/>
-    <mergeCell ref="CQ11:CQ12"/>
-    <mergeCell ref="CS11:CS12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="BN11:BN12"/>
-    <mergeCell ref="BO11:BO12"/>
-    <mergeCell ref="BP11:BP12"/>
-    <mergeCell ref="BQ11:BQ12"/>
-    <mergeCell ref="AQ11:AQ12"/>
-    <mergeCell ref="AR11:AR12"/>
-    <mergeCell ref="AS11:AS12"/>
-    <mergeCell ref="AW11:AW12"/>
-    <mergeCell ref="BB11:BB12"/>
-    <mergeCell ref="BJ11:BJ12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="CV8:CV10"/>
-    <mergeCell ref="CZ8:CZ10"/>
-    <mergeCell ref="DL8:DL10"/>
-    <mergeCell ref="BN8:BN10"/>
-    <mergeCell ref="BO8:BO10"/>
-    <mergeCell ref="BP8:BP10"/>
-    <mergeCell ref="BQ8:BQ10"/>
-    <mergeCell ref="BU8:BU10"/>
-    <mergeCell ref="CG8:CG10"/>
-    <mergeCell ref="AS8:AS10"/>
-    <mergeCell ref="AW8:AW10"/>
-    <mergeCell ref="BB8:BB10"/>
-    <mergeCell ref="BJ8:BJ10"/>
-    <mergeCell ref="BK8:BK10"/>
-    <mergeCell ref="BL8:BL10"/>
-    <mergeCell ref="AL8:AL10"/>
-    <mergeCell ref="AM8:AM10"/>
-    <mergeCell ref="AN8:AN10"/>
-    <mergeCell ref="DN8:DN10"/>
-    <mergeCell ref="DP8:DP10"/>
-    <mergeCell ref="DU8:DU10"/>
-    <mergeCell ref="CO8:CO10"/>
-    <mergeCell ref="CP8:CP10"/>
-    <mergeCell ref="CQ8:CQ10"/>
-    <mergeCell ref="CS8:CS10"/>
-    <mergeCell ref="CT8:CT10"/>
-    <mergeCell ref="CU8:CU10"/>
-    <mergeCell ref="AP8:AP10"/>
-    <mergeCell ref="AQ8:AQ10"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AI8:AI10"/>
-    <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="DP6:DP7"/>
-    <mergeCell ref="DU6:DU7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="CT6:CT7"/>
-    <mergeCell ref="CU6:CU7"/>
-    <mergeCell ref="CV6:CV7"/>
-    <mergeCell ref="CZ6:CZ7"/>
-    <mergeCell ref="DL6:DL7"/>
-    <mergeCell ref="DN6:DN7"/>
-    <mergeCell ref="BU6:BU7"/>
-    <mergeCell ref="CG6:CG7"/>
-    <mergeCell ref="CO6:CO7"/>
-    <mergeCell ref="CP6:CP7"/>
-    <mergeCell ref="CQ6:CQ7"/>
-    <mergeCell ref="CS6:CS7"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BJ6:BJ7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="CV4:CV5"/>
-    <mergeCell ref="CZ4:CZ5"/>
-    <mergeCell ref="DL4:DL5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="AS4:AS5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="BB4:BB5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="DP2:DP3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CZ2:CZ3"/>
-    <mergeCell ref="DL2:DL3"/>
-    <mergeCell ref="DN2:DN3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="AI24:AI26"/>
+    <mergeCell ref="AJ24:AJ26"/>
+    <mergeCell ref="AL24:AL26"/>
+    <mergeCell ref="AM24:AM26"/>
+    <mergeCell ref="AN24:AN26"/>
+    <mergeCell ref="AP24:AP26"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="Z24:Z26"/>
+    <mergeCell ref="AB24:AB26"/>
+    <mergeCell ref="AD24:AD26"/>
+    <mergeCell ref="AF24:AF26"/>
+    <mergeCell ref="BK24:BK26"/>
+    <mergeCell ref="BL24:BL26"/>
+    <mergeCell ref="BN24:BN26"/>
+    <mergeCell ref="BO24:BO26"/>
+    <mergeCell ref="BP24:BP26"/>
+    <mergeCell ref="BQ24:BQ26"/>
+    <mergeCell ref="AQ24:AQ26"/>
+    <mergeCell ref="AR24:AR26"/>
+    <mergeCell ref="AS24:AS26"/>
+    <mergeCell ref="AW24:AW26"/>
+    <mergeCell ref="BB24:BB26"/>
+    <mergeCell ref="BJ24:BJ26"/>
+    <mergeCell ref="DP24:DP26"/>
+    <mergeCell ref="DU24:DU26"/>
+    <mergeCell ref="CT24:CT26"/>
+    <mergeCell ref="CU24:CU26"/>
+    <mergeCell ref="CV24:CV26"/>
+    <mergeCell ref="CZ24:CZ26"/>
+    <mergeCell ref="DL24:DL26"/>
+    <mergeCell ref="DN24:DN26"/>
+    <mergeCell ref="BU24:BU26"/>
+    <mergeCell ref="CG24:CG26"/>
+    <mergeCell ref="CO24:CO26"/>
+    <mergeCell ref="CP24:CP26"/>
+    <mergeCell ref="CQ24:CQ26"/>
+    <mergeCell ref="CS24:CS26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{6B03F986-0B15-43D9-8BBA-ADCB0BDAF8FD}"/>

--- a/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData.xlsx
+++ b/Testdata/Non_Oncology/Templates/SLRReport_SourceData/NonOnco_Expected_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Non_Oncology\Templates\SLRReport_SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42DFA1-5AD2-4CEE-A4A2-B82C7A707302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD29B4-3A16-4685-9927-D99D17C70211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A6DA7BF-2623-49FE-942E-939F1474AE46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="344">
   <si>
     <t>LiveSLR Study ID</t>
   </si>
@@ -1006,6 +1006,72 @@
   </si>
   <si>
     <t>95% CI</t>
+  </si>
+  <si>
+    <t>Update_Feagan_NEJM_2013</t>
+  </si>
+  <si>
+    <t>Update_Feagan_APT_2016,Update_Sandborn_JCC_2019</t>
+  </si>
+  <si>
+    <t>12,13,14</t>
+  </si>
+  <si>
+    <t>Prospective Multicenter</t>
+  </si>
+  <si>
+    <t>Update_Sandborn_JCC_2019</t>
+  </si>
+  <si>
+    <t>12,14</t>
+  </si>
+  <si>
+    <t>Update_Reinisch_Gut_2011</t>
+  </si>
+  <si>
+    <t>Update_Motoya_PLOS_2019</t>
+  </si>
+  <si>
+    <t>Update_Nagahori_Digestion_2019</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Update_Panaccione_Gastroenterology_2014</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Update_Kobayashi_JG_2016</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Update_Probert_Gut_2003</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Prospective Single-center</t>
+  </si>
+  <si>
+    <t>Update_Sandborn_NEJM_2016</t>
+  </si>
+  <si>
+    <t>Update_Sandborn_DDW_2018 (abstract)</t>
+  </si>
+  <si>
+    <t>21,22</t>
+  </si>
+  <si>
+    <t>Retrospective Single-center</t>
   </si>
 </sst>
 </file>
@@ -1514,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1545A01-20B4-488F-9481-5F47F3256A0E}">
-  <dimension ref="A1:DU26"/>
+  <dimension ref="A1:DU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2:DB26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>72</v>
       </c>
@@ -2279,7 +2345,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2544,7 +2610,7 @@
       </c>
       <c r="DU3" s="11"/>
     </row>
-    <row r="4" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
@@ -2921,7 +2987,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -3186,7 +3252,7 @@
       </c>
       <c r="DU5" s="11"/>
     </row>
-    <row r="6" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
@@ -3563,7 +3629,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3828,7 +3894,7 @@
       </c>
       <c r="DU7" s="11"/>
     </row>
-    <row r="8" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>203</v>
       </c>
@@ -4205,7 +4271,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -4470,7 +4536,7 @@
       </c>
       <c r="DU9" s="11"/>
     </row>
-    <row r="10" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -4735,7 +4801,7 @@
       </c>
       <c r="DU10" s="11"/>
     </row>
-    <row r="11" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>165</v>
       </c>
@@ -5112,7 +5178,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -5377,7 +5443,7 @@
       </c>
       <c r="DU12" s="11"/>
     </row>
-    <row r="13" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>165</v>
       </c>
@@ -5754,7 +5820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -6019,7 +6085,7 @@
       </c>
       <c r="DU14" s="11"/>
     </row>
-    <row r="15" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>165</v>
       </c>
@@ -6396,7 +6462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -6661,7 +6727,7 @@
       </c>
       <c r="DU16" s="11"/>
     </row>
-    <row r="17" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>127</v>
       </c>
@@ -7038,7 +7104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -7303,7 +7369,7 @@
       </c>
       <c r="DU18" s="11"/>
     </row>
-    <row r="19" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -7568,7 +7634,7 @@
       </c>
       <c r="DU19" s="11"/>
     </row>
-    <row r="20" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -7945,7 +8011,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -8210,7 +8276,7 @@
       </c>
       <c r="DU21" s="11"/>
     </row>
-    <row r="22" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>109</v>
       </c>
@@ -8587,7 +8653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -8852,7 +8918,7 @@
       </c>
       <c r="DU23" s="11"/>
     </row>
-    <row r="24" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>274</v>
       </c>
@@ -9229,7 +9295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -9494,7 +9560,7 @@
       </c>
       <c r="DU25" s="11"/>
     </row>
-    <row r="26" spans="1:125" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -9759,8 +9825,7880 @@
       </c>
       <c r="DU26" s="11"/>
     </row>
+    <row r="27" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI27" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY27" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK27" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB27" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="CC27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH27" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="CJ27" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CM27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB27" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DD27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="DI27" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DJ27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK27" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="DN27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="DO27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="DR27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DS27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="DU27" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA28" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="11"/>
+      <c r="BM28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN28" s="11"/>
+      <c r="BO28" s="11"/>
+      <c r="BP28" s="11"/>
+      <c r="BQ28" s="11"/>
+      <c r="BR28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU28" s="11"/>
+      <c r="BV28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ28" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG28" s="11"/>
+      <c r="CH28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO28" s="11"/>
+      <c r="CP28" s="11"/>
+      <c r="CQ28" s="11"/>
+      <c r="CR28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS28" s="11"/>
+      <c r="CT28" s="11"/>
+      <c r="CU28" s="11"/>
+      <c r="CV28" s="11"/>
+      <c r="CW28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ28" s="11"/>
+      <c r="DA28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB28" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC28" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="DD28" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI28" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL28" s="11"/>
+      <c r="DM28" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DN28" s="11"/>
+      <c r="DO28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DP28" s="11"/>
+      <c r="DQ28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DR28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="DS28" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT28" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="DU28" s="11"/>
+    </row>
+    <row r="29" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ29" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD29" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG29" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW29" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP29" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS29" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU29" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB29" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD29" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE29" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF29" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG29" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI29" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ29" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM29" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN29" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO29" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP29" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ29" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS29" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT29" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU29" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY30" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AZ30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ30" s="11"/>
+      <c r="BK30" s="11"/>
+      <c r="BL30" s="11"/>
+      <c r="BM30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN30" s="11"/>
+      <c r="BO30" s="11"/>
+      <c r="BP30" s="11"/>
+      <c r="BQ30" s="11"/>
+      <c r="BR30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU30" s="11"/>
+      <c r="BV30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB30" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG30" s="11"/>
+      <c r="CH30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO30" s="11"/>
+      <c r="CP30" s="11"/>
+      <c r="CQ30" s="11"/>
+      <c r="CR30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS30" s="11"/>
+      <c r="CT30" s="11"/>
+      <c r="CU30" s="11"/>
+      <c r="CV30" s="11"/>
+      <c r="CW30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ30" s="11"/>
+      <c r="DA30" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB30" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE30" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ30" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK30" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL30" s="11"/>
+      <c r="DM30" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN30" s="11"/>
+      <c r="DO30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP30" s="11"/>
+      <c r="DQ30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR30" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS30" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU30" s="11"/>
+    </row>
+    <row r="31" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK31" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN31" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB31" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF31" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG31" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN31" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP31" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV31" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW31" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY31" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ31" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB31" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI31" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM31" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO31" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ31" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS31" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU31" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="11"/>
+      <c r="BM32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN32" s="11"/>
+      <c r="BO32" s="11"/>
+      <c r="BP32" s="11"/>
+      <c r="BQ32" s="11"/>
+      <c r="BR32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU32" s="11"/>
+      <c r="BV32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW32" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ32" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG32" s="11"/>
+      <c r="CH32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO32" s="11"/>
+      <c r="CP32" s="11"/>
+      <c r="CQ32" s="11"/>
+      <c r="CR32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS32" s="11"/>
+      <c r="CT32" s="11"/>
+      <c r="CU32" s="11"/>
+      <c r="CV32" s="11"/>
+      <c r="CW32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ32" s="11"/>
+      <c r="DA32" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB32" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL32" s="11"/>
+      <c r="DM32" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN32" s="11"/>
+      <c r="DO32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP32" s="11"/>
+      <c r="DQ32" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS32" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU32" s="11"/>
+    </row>
+    <row r="33" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX33" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY33" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ33" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD33" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF33" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN33" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW33" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB33" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK33" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL33" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP33" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT33" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DC33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DH33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DI33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM33" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN33" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO33" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ33" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU33" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY34" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF34" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+      <c r="BM34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN34" s="11"/>
+      <c r="BO34" s="11"/>
+      <c r="BP34" s="11"/>
+      <c r="BQ34" s="11"/>
+      <c r="BR34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU34" s="11"/>
+      <c r="BV34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW34" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG34" s="11"/>
+      <c r="CH34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ34" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK34" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL34" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO34" s="11"/>
+      <c r="CP34" s="11"/>
+      <c r="CQ34" s="11"/>
+      <c r="CR34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS34" s="11"/>
+      <c r="CT34" s="11"/>
+      <c r="CU34" s="11"/>
+      <c r="CV34" s="11"/>
+      <c r="CW34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ34" s="11"/>
+      <c r="DA34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DC34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DH34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DI34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL34" s="11"/>
+      <c r="DM34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN34" s="11"/>
+      <c r="DO34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP34" s="11"/>
+      <c r="DQ34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS34" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU34" s="11"/>
+    </row>
+    <row r="35" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY35" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
+      <c r="BM35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN35" s="11"/>
+      <c r="BO35" s="11"/>
+      <c r="BP35" s="11"/>
+      <c r="BQ35" s="11"/>
+      <c r="BR35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU35" s="11"/>
+      <c r="BV35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ35" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG35" s="11"/>
+      <c r="CH35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL35" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO35" s="11"/>
+      <c r="CP35" s="11"/>
+      <c r="CQ35" s="11"/>
+      <c r="CR35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS35" s="11"/>
+      <c r="CT35" s="11"/>
+      <c r="CU35" s="11"/>
+      <c r="CV35" s="11"/>
+      <c r="CW35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ35" s="11"/>
+      <c r="DA35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DC35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DH35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DI35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DJ35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL35" s="11"/>
+      <c r="DM35" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN35" s="11"/>
+      <c r="DO35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP35" s="11"/>
+      <c r="DQ35" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS35" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU35" s="11"/>
+    </row>
+    <row r="36" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC36" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD36" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF36" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG36" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI36" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ36" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK36" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF36" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG36" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO36" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX36" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ36" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB36" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI36" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL36" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM36" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP36" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB36" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD36" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF36" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN36" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT36" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU36" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH37" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+      <c r="BM37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN37" s="11"/>
+      <c r="BO37" s="11"/>
+      <c r="BP37" s="11"/>
+      <c r="BQ37" s="11"/>
+      <c r="BR37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU37" s="11"/>
+      <c r="BV37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW37" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY37" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ37" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB37" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG37" s="11"/>
+      <c r="CH37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO37" s="11"/>
+      <c r="CP37" s="11"/>
+      <c r="CQ37" s="11"/>
+      <c r="CR37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS37" s="11"/>
+      <c r="CT37" s="11"/>
+      <c r="CU37" s="11"/>
+      <c r="CV37" s="11"/>
+      <c r="CW37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ37" s="11"/>
+      <c r="DA37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB37" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC37" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI37" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL37" s="11"/>
+      <c r="DM37" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN37" s="11"/>
+      <c r="DO37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP37" s="11"/>
+      <c r="DQ37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT37" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU37" s="11"/>
+    </row>
+    <row r="38" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB38" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC38" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD38" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE38" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG38" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ38" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK38" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL38" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF38" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG38" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK38" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN38" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO38" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP38" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW38" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY38" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM38" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP38" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU38" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA38" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="DB38" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC38" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD38" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL38" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN38" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO38" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT38" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU38" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU39" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ39" s="11"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+      <c r="BM39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN39" s="11"/>
+      <c r="BO39" s="11"/>
+      <c r="BP39" s="11"/>
+      <c r="BQ39" s="11"/>
+      <c r="BR39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU39" s="11"/>
+      <c r="BV39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY39" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB39" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG39" s="11"/>
+      <c r="CH39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO39" s="11"/>
+      <c r="CP39" s="11"/>
+      <c r="CQ39" s="11"/>
+      <c r="CR39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS39" s="11"/>
+      <c r="CT39" s="11"/>
+      <c r="CU39" s="11"/>
+      <c r="CV39" s="11"/>
+      <c r="CW39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ39" s="11"/>
+      <c r="DA39" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="DB39" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD39" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL39" s="11"/>
+      <c r="DM39" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN39" s="11"/>
+      <c r="DO39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP39" s="11"/>
+      <c r="DQ39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT39" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU39" s="11"/>
+    </row>
+    <row r="40" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="O40" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W40" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y40" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC40" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF40" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG40" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ40" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK40" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL40" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM40" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO40" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF40" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW40" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ40" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM40" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP40" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB40" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC40" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD40" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF40" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH40" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI40" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK40" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM40" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN40" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP40" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR40" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS40" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU40" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y41" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU41" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ41" s="11"/>
+      <c r="BK41" s="11"/>
+      <c r="BL41" s="11"/>
+      <c r="BM41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN41" s="11"/>
+      <c r="BO41" s="11"/>
+      <c r="BP41" s="11"/>
+      <c r="BQ41" s="11"/>
+      <c r="BR41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU41" s="11"/>
+      <c r="BV41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW41" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX41" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY41" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB41" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG41" s="11"/>
+      <c r="CH41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO41" s="11"/>
+      <c r="CP41" s="11"/>
+      <c r="CQ41" s="11"/>
+      <c r="CR41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS41" s="11"/>
+      <c r="CT41" s="11"/>
+      <c r="CU41" s="11"/>
+      <c r="CV41" s="11"/>
+      <c r="CW41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ41" s="11"/>
+      <c r="DA41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB41" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC41" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD41" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI41" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL41" s="11"/>
+      <c r="DM41" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN41" s="11"/>
+      <c r="DO41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP41" s="11"/>
+      <c r="DQ41" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU41" s="11"/>
+    </row>
+    <row r="42" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB42" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD42" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE42" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF42" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG42" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH42" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK42" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL42" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX42" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY42" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF42" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG42" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK42" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO42" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW42" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB42" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI42" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="CJ42" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB42" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC42" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD42" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF42" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG42" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH42" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI42" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ42" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM42" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN42" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP42" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR42" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU42" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="X43" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y43" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU43" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY43" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF43" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
+      <c r="BM43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN43" s="11"/>
+      <c r="BO43" s="11"/>
+      <c r="BP43" s="11"/>
+      <c r="BQ43" s="11"/>
+      <c r="BR43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS43" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU43" s="11"/>
+      <c r="BV43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW43" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG43" s="11"/>
+      <c r="CH43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK43" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO43" s="11"/>
+      <c r="CP43" s="11"/>
+      <c r="CQ43" s="11"/>
+      <c r="CR43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS43" s="11"/>
+      <c r="CT43" s="11"/>
+      <c r="CU43" s="11"/>
+      <c r="CV43" s="11"/>
+      <c r="CW43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX43" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ43" s="11"/>
+      <c r="DA43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB43" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC43" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD43" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF43" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH43" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI43" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ43" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL43" s="11"/>
+      <c r="DM43" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN43" s="11"/>
+      <c r="DO43" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP43" s="11"/>
+      <c r="DQ43" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU43" s="11"/>
+    </row>
+    <row r="44" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH44" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU44" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY44" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="11"/>
+      <c r="BM44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN44" s="11"/>
+      <c r="BO44" s="11"/>
+      <c r="BP44" s="11"/>
+      <c r="BQ44" s="11"/>
+      <c r="BR44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS44" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU44" s="11"/>
+      <c r="BV44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB44" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG44" s="11"/>
+      <c r="CH44" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO44" s="11"/>
+      <c r="CP44" s="11"/>
+      <c r="CQ44" s="11"/>
+      <c r="CR44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS44" s="11"/>
+      <c r="CT44" s="11"/>
+      <c r="CU44" s="11"/>
+      <c r="CV44" s="11"/>
+      <c r="CW44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX44" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ44" s="11"/>
+      <c r="DA44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB44" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC44" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD44" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK44" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL44" s="11"/>
+      <c r="DM44" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN44" s="11"/>
+      <c r="DO44" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP44" s="11"/>
+      <c r="DQ44" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR44" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU44" s="11"/>
+    </row>
+    <row r="45" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y45" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC45" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE45" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG45" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK45" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM45" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO45" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX45" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ45" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC45" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF45" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG45" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BI45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK45" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN45" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO45" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP45" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW45" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH45" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB45" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC45" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD45" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF45" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG45" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK45" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL45" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM45" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN45" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT45" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU46" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ46" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ46" s="11"/>
+      <c r="BK46" s="11"/>
+      <c r="BL46" s="11"/>
+      <c r="BM46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN46" s="11"/>
+      <c r="BO46" s="11"/>
+      <c r="BP46" s="11"/>
+      <c r="BQ46" s="11"/>
+      <c r="BR46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU46" s="11"/>
+      <c r="BV46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW46" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY46" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB46" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG46" s="11"/>
+      <c r="CH46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO46" s="11"/>
+      <c r="CP46" s="11"/>
+      <c r="CQ46" s="11"/>
+      <c r="CR46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS46" s="11"/>
+      <c r="CT46" s="11"/>
+      <c r="CU46" s="11"/>
+      <c r="CV46" s="11"/>
+      <c r="CW46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ46" s="11"/>
+      <c r="DA46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB46" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC46" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD46" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI46" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL46" s="11"/>
+      <c r="DM46" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN46" s="11"/>
+      <c r="DO46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP46" s="11"/>
+      <c r="DQ46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU46" s="11"/>
+    </row>
+    <row r="47" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="R47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC47" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD47" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE47" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG47" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH47" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK47" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX47" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ47" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF47" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG47" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH47" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="BI47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK47" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP47" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW47" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY47" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ47" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB47" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH47" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI47" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ47" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK47" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL47" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM47" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CN47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP47" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT47" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB47" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC47" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD47" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH47" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI47" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM47" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN47" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP47" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU47" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ48" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ48" s="11"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+      <c r="BM48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN48" s="11"/>
+      <c r="BO48" s="11"/>
+      <c r="BP48" s="11"/>
+      <c r="BQ48" s="11"/>
+      <c r="BR48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU48" s="11"/>
+      <c r="BV48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX48" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BY48" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BZ48" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB48" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG48" s="11"/>
+      <c r="CH48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO48" s="11"/>
+      <c r="CP48" s="11"/>
+      <c r="CQ48" s="11"/>
+      <c r="CR48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS48" s="11"/>
+      <c r="CT48" s="11"/>
+      <c r="CU48" s="11"/>
+      <c r="CV48" s="11"/>
+      <c r="CW48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ48" s="11"/>
+      <c r="DA48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB48" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC48" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD48" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DG48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI48" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DK48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL48" s="11"/>
+      <c r="DM48" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN48" s="11"/>
+      <c r="DO48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP48" s="11"/>
+      <c r="DQ48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DR48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DS48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="DT48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU48" s="11"/>
+    </row>
+    <row r="49" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="R49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="U49" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="V49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC49" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE49" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF49" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH49" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK49" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL49" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM49" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO49" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR49" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX49" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY49" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ49" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC49" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD49" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF49" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG49" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK49" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO49" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BP49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV49" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ49" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB49" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CH49" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK49" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP49" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CQ49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="CW49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB49" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC49" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD49" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF49" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH49" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI49" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ49" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="DM49" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN49" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DO49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DQ49" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR49" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS49" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU49" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH50" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY50" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ50" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD50" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG50" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="11"/>
+      <c r="BM50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN50" s="11"/>
+      <c r="BO50" s="11"/>
+      <c r="BP50" s="11"/>
+      <c r="BQ50" s="11"/>
+      <c r="BR50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BT50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU50" s="11"/>
+      <c r="BV50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW50" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ50" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="CC50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG50" s="11"/>
+      <c r="CH50" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ50" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK50" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="CL50" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO50" s="11"/>
+      <c r="CP50" s="11"/>
+      <c r="CQ50" s="11"/>
+      <c r="CR50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS50" s="11"/>
+      <c r="CT50" s="11"/>
+      <c r="CU50" s="11"/>
+      <c r="CV50" s="11"/>
+      <c r="CW50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ50" s="11"/>
+      <c r="DA50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DB50" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC50" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DD50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DE50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="DH50" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DI50" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ50" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="DK50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL50" s="11"/>
+      <c r="DM50" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN50" s="11"/>
+      <c r="DO50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DP50" s="11"/>
+      <c r="DQ50" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="DR50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DS50" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU50" s="11"/>
+    </row>
+    <row r="51" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY51" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ51" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ51" s="11"/>
+      <c r="BK51" s="11"/>
+      <c r="BL51" s="11"/>
+      <c r="BM51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN51" s="11"/>
+      <c r="BO51" s="11"/>
+      <c r="BP51" s="11"/>
+      <c r="BQ51" s="11"/>
+      <c r="BR51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BU51" s="11"/>
+      <c r="BV51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW51" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BZ51" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CA51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CB51" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CF51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CG51" s="11"/>
+      <c r="CH51" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CK51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CL51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CN51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CO51" s="11"/>
+      <c r="CP51" s="11"/>
+      <c r="CQ51" s="11"/>
+      <c r="CR51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS51" s="11"/>
+      <c r="CT51" s="11"/>
+      <c r="CU51" s="11"/>
+      <c r="CV51" s="11"/>
+      <c r="CW51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CX51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CY51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ51" s="11"/>
+      <c r="DA51" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB51" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="DC51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="DD51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="DF51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DG51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DH51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL51" s="11"/>
+      <c r="DM51" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DN51" s="11"/>
+      <c r="DO51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="DP51" s="11"/>
+      <c r="DQ51" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS51" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="DT51" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU51" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="616">
+  <mergeCells count="1232">
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -9770,27 +17708,10 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
     <mergeCell ref="BN2:BN3"/>
     <mergeCell ref="BO2:BO3"/>
     <mergeCell ref="BP2:BP3"/>
@@ -9801,6 +17722,24 @@
     <mergeCell ref="AW2:AW3"/>
     <mergeCell ref="BB2:BB3"/>
     <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="DP2:DP3"/>
     <mergeCell ref="DU2:DU3"/>
     <mergeCell ref="A4:A5"/>
@@ -9821,22 +17760,15 @@
     <mergeCell ref="CG2:CG3"/>
     <mergeCell ref="CO2:CO3"/>
     <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="DN4:DN5"/>
+    <mergeCell ref="DP4:DP5"/>
+    <mergeCell ref="DU4:DU5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CP4:CP5"/>
+    <mergeCell ref="CQ4:CQ5"/>
+    <mergeCell ref="CS4:CS5"/>
+    <mergeCell ref="CT4:CT5"/>
+    <mergeCell ref="CU4:CU5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
@@ -9846,21 +17778,6 @@
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="DN4:DN5"/>
-    <mergeCell ref="DP4:DP5"/>
-    <mergeCell ref="DU4:DU5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CP4:CP5"/>
-    <mergeCell ref="CQ4:CQ5"/>
-    <mergeCell ref="CS4:CS5"/>
-    <mergeCell ref="CT4:CT5"/>
-    <mergeCell ref="CU4:CU5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="CV4:CV5"/>
     <mergeCell ref="CZ4:CZ5"/>
     <mergeCell ref="DL4:DL5"/>
@@ -9891,6 +17808,18 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="BB6:BB7"/>
+    <mergeCell ref="BJ6:BJ7"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AL6:AL7"/>
@@ -9903,16 +17832,10 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AS6:AS7"/>
-    <mergeCell ref="AW6:AW7"/>
-    <mergeCell ref="BB6:BB7"/>
-    <mergeCell ref="BJ6:BJ7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
     <mergeCell ref="DP6:DP7"/>
     <mergeCell ref="DU6:DU7"/>
     <mergeCell ref="A8:A10"/>
@@ -9937,18 +17860,19 @@
     <mergeCell ref="CS6:CS7"/>
     <mergeCell ref="BK6:BK7"/>
     <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="DN8:DN10"/>
+    <mergeCell ref="DP8:DP10"/>
+    <mergeCell ref="DU8:DU10"/>
+    <mergeCell ref="CO8:CO10"/>
+    <mergeCell ref="CP8:CP10"/>
+    <mergeCell ref="CQ8:CQ10"/>
+    <mergeCell ref="CS8:CS10"/>
+    <mergeCell ref="CT8:CT10"/>
+    <mergeCell ref="CU8:CU10"/>
     <mergeCell ref="AP8:AP10"/>
     <mergeCell ref="AQ8:AQ10"/>
     <mergeCell ref="AR8:AR10"/>
@@ -9958,15 +17882,6 @@
     <mergeCell ref="AF8:AF10"/>
     <mergeCell ref="AI8:AI10"/>
     <mergeCell ref="AJ8:AJ10"/>
-    <mergeCell ref="DN8:DN10"/>
-    <mergeCell ref="DP8:DP10"/>
-    <mergeCell ref="DU8:DU10"/>
-    <mergeCell ref="CO8:CO10"/>
-    <mergeCell ref="CP8:CP10"/>
-    <mergeCell ref="CQ8:CQ10"/>
-    <mergeCell ref="CS8:CS10"/>
-    <mergeCell ref="CT8:CT10"/>
-    <mergeCell ref="CU8:CU10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -9991,6 +17906,20 @@
     <mergeCell ref="AL8:AL10"/>
     <mergeCell ref="AM8:AM10"/>
     <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AF11:AF12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="O11:O12"/>
@@ -10003,18 +17932,10 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="AI11:AI12"/>
-    <mergeCell ref="AJ11:AJ12"/>
-    <mergeCell ref="AL11:AL12"/>
-    <mergeCell ref="AM11:AM12"/>
-    <mergeCell ref="AN11:AN12"/>
-    <mergeCell ref="AP11:AP12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="CQ11:CQ12"/>
+    <mergeCell ref="CS11:CS12"/>
+    <mergeCell ref="BK11:BK12"/>
+    <mergeCell ref="BL11:BL12"/>
     <mergeCell ref="BN11:BN12"/>
     <mergeCell ref="BO11:BO12"/>
     <mergeCell ref="BP11:BP12"/>
@@ -10025,6 +17946,24 @@
     <mergeCell ref="AW11:AW12"/>
     <mergeCell ref="BB11:BB12"/>
     <mergeCell ref="BJ11:BJ12"/>
+    <mergeCell ref="AI11:AI12"/>
+    <mergeCell ref="AJ11:AJ12"/>
+    <mergeCell ref="AL11:AL12"/>
+    <mergeCell ref="AM11:AM12"/>
+    <mergeCell ref="AN11:AN12"/>
+    <mergeCell ref="AP11:AP12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="DP11:DP12"/>
     <mergeCell ref="DU11:DU12"/>
     <mergeCell ref="A13:A14"/>
@@ -10045,22 +17984,15 @@
     <mergeCell ref="CG11:CG12"/>
     <mergeCell ref="CO11:CO12"/>
     <mergeCell ref="CP11:CP12"/>
-    <mergeCell ref="CQ11:CQ12"/>
-    <mergeCell ref="CS11:CS12"/>
-    <mergeCell ref="BK11:BK12"/>
-    <mergeCell ref="BL11:BL12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="DN13:DN14"/>
+    <mergeCell ref="DP13:DP14"/>
+    <mergeCell ref="DU13:DU14"/>
+    <mergeCell ref="CO13:CO14"/>
+    <mergeCell ref="CP13:CP14"/>
+    <mergeCell ref="CQ13:CQ14"/>
+    <mergeCell ref="CS13:CS14"/>
+    <mergeCell ref="CT13:CT14"/>
+    <mergeCell ref="CU13:CU14"/>
     <mergeCell ref="AP13:AP14"/>
     <mergeCell ref="AQ13:AQ14"/>
     <mergeCell ref="AR13:AR14"/>
@@ -10070,21 +18002,6 @@
     <mergeCell ref="AF13:AF14"/>
     <mergeCell ref="AI13:AI14"/>
     <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="DN13:DN14"/>
-    <mergeCell ref="DP13:DP14"/>
-    <mergeCell ref="DU13:DU14"/>
-    <mergeCell ref="CO13:CO14"/>
-    <mergeCell ref="CP13:CP14"/>
-    <mergeCell ref="CQ13:CQ14"/>
-    <mergeCell ref="CS13:CS14"/>
-    <mergeCell ref="CT13:CT14"/>
-    <mergeCell ref="CU13:CU14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
     <mergeCell ref="CV13:CV14"/>
     <mergeCell ref="CZ13:CZ14"/>
     <mergeCell ref="DL13:DL14"/>
@@ -10115,6 +18032,18 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AR15:AR16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="BB15:BB16"/>
+    <mergeCell ref="BJ15:BJ16"/>
     <mergeCell ref="AI15:AI16"/>
     <mergeCell ref="AJ15:AJ16"/>
     <mergeCell ref="AL15:AL16"/>
@@ -10127,16 +18056,10 @@
     <mergeCell ref="AB15:AB16"/>
     <mergeCell ref="AD15:AD16"/>
     <mergeCell ref="AF15:AF16"/>
-    <mergeCell ref="BN15:BN16"/>
-    <mergeCell ref="BO15:BO16"/>
-    <mergeCell ref="BP15:BP16"/>
-    <mergeCell ref="BQ15:BQ16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AR15:AR16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="BJ15:BJ16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
     <mergeCell ref="DP15:DP16"/>
     <mergeCell ref="DU15:DU16"/>
     <mergeCell ref="A17:A19"/>
@@ -10161,18 +18084,19 @@
     <mergeCell ref="CS15:CS16"/>
     <mergeCell ref="BK15:BK16"/>
     <mergeCell ref="BL15:BL16"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="BN15:BN16"/>
+    <mergeCell ref="BO15:BO16"/>
+    <mergeCell ref="BP15:BP16"/>
+    <mergeCell ref="BQ15:BQ16"/>
+    <mergeCell ref="DN17:DN19"/>
+    <mergeCell ref="DP17:DP19"/>
+    <mergeCell ref="DU17:DU19"/>
+    <mergeCell ref="CO17:CO19"/>
+    <mergeCell ref="CP17:CP19"/>
+    <mergeCell ref="CQ17:CQ19"/>
+    <mergeCell ref="CS17:CS19"/>
+    <mergeCell ref="CT17:CT19"/>
+    <mergeCell ref="CU17:CU19"/>
     <mergeCell ref="AP17:AP19"/>
     <mergeCell ref="AQ17:AQ19"/>
     <mergeCell ref="AR17:AR19"/>
@@ -10182,15 +18106,6 @@
     <mergeCell ref="AF17:AF19"/>
     <mergeCell ref="AI17:AI19"/>
     <mergeCell ref="AJ17:AJ19"/>
-    <mergeCell ref="DN17:DN19"/>
-    <mergeCell ref="DP17:DP19"/>
-    <mergeCell ref="DU17:DU19"/>
-    <mergeCell ref="CO17:CO19"/>
-    <mergeCell ref="CP17:CP19"/>
-    <mergeCell ref="CQ17:CQ19"/>
-    <mergeCell ref="CS17:CS19"/>
-    <mergeCell ref="CT17:CT19"/>
-    <mergeCell ref="CU17:CU19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
@@ -10215,6 +18130,20 @@
     <mergeCell ref="AL17:AL19"/>
     <mergeCell ref="AM17:AM19"/>
     <mergeCell ref="AN17:AN19"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AB20:AB21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AF20:AF21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -10227,18 +18156,8 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AM20:AM21"/>
-    <mergeCell ref="AN20:AN21"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="BK20:BK21"/>
+    <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BN20:BN21"/>
     <mergeCell ref="BO20:BO21"/>
     <mergeCell ref="BP20:BP21"/>
@@ -10249,6 +18168,22 @@
     <mergeCell ref="AW20:AW21"/>
     <mergeCell ref="BB20:BB21"/>
     <mergeCell ref="BJ20:BJ21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AM20:AM21"/>
+    <mergeCell ref="AN20:AN21"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
     <mergeCell ref="DP20:DP21"/>
     <mergeCell ref="DU20:DU21"/>
     <mergeCell ref="A22:A23"/>
@@ -10271,20 +18206,15 @@
     <mergeCell ref="CP20:CP21"/>
     <mergeCell ref="CQ20:CQ21"/>
     <mergeCell ref="CS20:CS21"/>
-    <mergeCell ref="BK20:BK21"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="U22:U23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="DN22:DN23"/>
+    <mergeCell ref="DP22:DP23"/>
+    <mergeCell ref="DU22:DU23"/>
+    <mergeCell ref="CO22:CO23"/>
+    <mergeCell ref="CP22:CP23"/>
+    <mergeCell ref="CQ22:CQ23"/>
+    <mergeCell ref="CS22:CS23"/>
+    <mergeCell ref="CT22:CT23"/>
+    <mergeCell ref="CU22:CU23"/>
     <mergeCell ref="AP22:AP23"/>
     <mergeCell ref="AQ22:AQ23"/>
     <mergeCell ref="AR22:AR23"/>
@@ -10294,15 +18224,12 @@
     <mergeCell ref="AF22:AF23"/>
     <mergeCell ref="AI22:AI23"/>
     <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="DN22:DN23"/>
-    <mergeCell ref="DP22:DP23"/>
-    <mergeCell ref="DU22:DU23"/>
-    <mergeCell ref="CO22:CO23"/>
-    <mergeCell ref="CP22:CP23"/>
-    <mergeCell ref="CQ22:CQ23"/>
-    <mergeCell ref="CS22:CS23"/>
-    <mergeCell ref="CT22:CT23"/>
-    <mergeCell ref="CU22:CU23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -10327,18 +18254,11 @@
     <mergeCell ref="AL22:AL23"/>
     <mergeCell ref="AM22:AM23"/>
     <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="O24:O26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="Q24:Q26"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="AW24:AW26"/>
+    <mergeCell ref="BB24:BB26"/>
+    <mergeCell ref="BJ24:BJ26"/>
     <mergeCell ref="AI24:AI26"/>
     <mergeCell ref="AJ24:AJ26"/>
     <mergeCell ref="AL24:AL26"/>
@@ -10351,18 +18271,21 @@
     <mergeCell ref="AB24:AB26"/>
     <mergeCell ref="AD24:AD26"/>
     <mergeCell ref="AF24:AF26"/>
-    <mergeCell ref="BK24:BK26"/>
-    <mergeCell ref="BL24:BL26"/>
-    <mergeCell ref="BN24:BN26"/>
-    <mergeCell ref="BO24:BO26"/>
-    <mergeCell ref="BP24:BP26"/>
-    <mergeCell ref="BQ24:BQ26"/>
-    <mergeCell ref="AQ24:AQ26"/>
-    <mergeCell ref="AR24:AR26"/>
-    <mergeCell ref="AS24:AS26"/>
-    <mergeCell ref="AW24:AW26"/>
-    <mergeCell ref="BB24:BB26"/>
-    <mergeCell ref="BJ24:BJ26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="DP24:DP26"/>
     <mergeCell ref="DU24:DU26"/>
     <mergeCell ref="CT24:CT26"/>
@@ -10377,19 +18300,646 @@
     <mergeCell ref="CP24:CP26"/>
     <mergeCell ref="CQ24:CQ26"/>
     <mergeCell ref="CS24:CS26"/>
+    <mergeCell ref="BK24:BK26"/>
+    <mergeCell ref="BL24:BL26"/>
+    <mergeCell ref="BN24:BN26"/>
+    <mergeCell ref="BO24:BO26"/>
+    <mergeCell ref="BP24:BP26"/>
+    <mergeCell ref="BQ24:BQ26"/>
+    <mergeCell ref="AQ24:AQ26"/>
+    <mergeCell ref="AR24:AR26"/>
+    <mergeCell ref="AS24:AS26"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AB27:AB28"/>
+    <mergeCell ref="AD27:AD28"/>
+    <mergeCell ref="AF27:AF28"/>
+    <mergeCell ref="AI27:AI28"/>
+    <mergeCell ref="AJ27:AJ28"/>
+    <mergeCell ref="AL27:AL28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="DN27:DN28"/>
+    <mergeCell ref="BK27:BK28"/>
+    <mergeCell ref="BL27:BL28"/>
+    <mergeCell ref="BN27:BN28"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BP27:BP28"/>
+    <mergeCell ref="BQ27:BQ28"/>
+    <mergeCell ref="BU27:BU28"/>
+    <mergeCell ref="CG27:CG28"/>
+    <mergeCell ref="CO27:CO28"/>
+    <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="AN27:AN28"/>
+    <mergeCell ref="AP27:AP28"/>
+    <mergeCell ref="AQ27:AQ28"/>
+    <mergeCell ref="AR27:AR28"/>
+    <mergeCell ref="AS27:AS28"/>
+    <mergeCell ref="AW27:AW28"/>
+    <mergeCell ref="BB27:BB28"/>
+    <mergeCell ref="BJ27:BJ28"/>
+    <mergeCell ref="DP27:DP28"/>
+    <mergeCell ref="DU27:DU28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AB29:AB30"/>
+    <mergeCell ref="CP27:CP28"/>
+    <mergeCell ref="CQ27:CQ28"/>
+    <mergeCell ref="CS27:CS28"/>
+    <mergeCell ref="CT27:CT28"/>
+    <mergeCell ref="CU27:CU28"/>
+    <mergeCell ref="CV27:CV28"/>
+    <mergeCell ref="CZ27:CZ28"/>
+    <mergeCell ref="DL27:DL28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BQ29:BQ30"/>
+    <mergeCell ref="BU29:BU30"/>
+    <mergeCell ref="CG29:CG30"/>
+    <mergeCell ref="CO29:CO30"/>
+    <mergeCell ref="CP29:CP30"/>
+    <mergeCell ref="CQ29:CQ30"/>
+    <mergeCell ref="CS29:CS30"/>
+    <mergeCell ref="CT29:CT30"/>
+    <mergeCell ref="AR29:AR30"/>
+    <mergeCell ref="AS29:AS30"/>
+    <mergeCell ref="AW29:AW30"/>
+    <mergeCell ref="BB29:BB30"/>
+    <mergeCell ref="BJ29:BJ30"/>
+    <mergeCell ref="BK29:BK30"/>
+    <mergeCell ref="BL29:BL30"/>
+    <mergeCell ref="BN29:BN30"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="AD29:AD30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AP29:AP30"/>
+    <mergeCell ref="AQ29:AQ30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="CU29:CU30"/>
+    <mergeCell ref="CV29:CV30"/>
+    <mergeCell ref="CZ29:CZ30"/>
+    <mergeCell ref="DL29:DL30"/>
+    <mergeCell ref="DN29:DN30"/>
+    <mergeCell ref="DP29:DP30"/>
+    <mergeCell ref="DU29:DU30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="DL31:DL32"/>
+    <mergeCell ref="BJ31:BJ32"/>
+    <mergeCell ref="BK31:BK32"/>
+    <mergeCell ref="BL31:BL32"/>
+    <mergeCell ref="BN31:BN32"/>
+    <mergeCell ref="BO31:BO32"/>
+    <mergeCell ref="BP31:BP32"/>
+    <mergeCell ref="BQ31:BQ32"/>
+    <mergeCell ref="BU31:BU32"/>
+    <mergeCell ref="CG31:CG32"/>
+    <mergeCell ref="AL31:AL32"/>
+    <mergeCell ref="AM31:AM32"/>
+    <mergeCell ref="AN31:AN32"/>
+    <mergeCell ref="AP31:AP32"/>
+    <mergeCell ref="AQ31:AQ32"/>
+    <mergeCell ref="AR31:AR32"/>
+    <mergeCell ref="AS31:AS32"/>
+    <mergeCell ref="AW31:AW32"/>
+    <mergeCell ref="BB31:BB32"/>
+    <mergeCell ref="DN31:DN32"/>
+    <mergeCell ref="DP31:DP32"/>
+    <mergeCell ref="DU31:DU32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="L33:L35"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="N33:N35"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="Q33:Q35"/>
+    <mergeCell ref="S33:S35"/>
+    <mergeCell ref="T33:T35"/>
+    <mergeCell ref="U33:U35"/>
+    <mergeCell ref="Z33:Z35"/>
+    <mergeCell ref="CO31:CO32"/>
+    <mergeCell ref="CP31:CP32"/>
+    <mergeCell ref="CQ31:CQ32"/>
+    <mergeCell ref="CS31:CS32"/>
+    <mergeCell ref="CT31:CT32"/>
+    <mergeCell ref="CU31:CU32"/>
+    <mergeCell ref="CV31:CV32"/>
+    <mergeCell ref="CZ31:CZ32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="BO33:BO35"/>
+    <mergeCell ref="AQ33:AQ35"/>
+    <mergeCell ref="AR33:AR35"/>
+    <mergeCell ref="AS33:AS35"/>
+    <mergeCell ref="AW33:AW35"/>
+    <mergeCell ref="BB33:BB35"/>
+    <mergeCell ref="BJ33:BJ35"/>
+    <mergeCell ref="BK33:BK35"/>
+    <mergeCell ref="BL33:BL35"/>
+    <mergeCell ref="BN33:BN35"/>
+    <mergeCell ref="AB33:AB35"/>
+    <mergeCell ref="AD33:AD35"/>
+    <mergeCell ref="AF33:AF35"/>
+    <mergeCell ref="AI33:AI35"/>
+    <mergeCell ref="AJ33:AJ35"/>
+    <mergeCell ref="AL33:AL35"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AF36:AF37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="CT33:CT35"/>
+    <mergeCell ref="CU33:CU35"/>
+    <mergeCell ref="CV33:CV35"/>
+    <mergeCell ref="CZ33:CZ35"/>
+    <mergeCell ref="DL33:DL35"/>
+    <mergeCell ref="DN33:DN35"/>
+    <mergeCell ref="DP33:DP35"/>
+    <mergeCell ref="DU33:DU35"/>
+    <mergeCell ref="BP33:BP35"/>
+    <mergeCell ref="BQ33:BQ35"/>
+    <mergeCell ref="BU33:BU35"/>
+    <mergeCell ref="CG33:CG35"/>
+    <mergeCell ref="CO33:CO35"/>
+    <mergeCell ref="CP33:CP35"/>
+    <mergeCell ref="CQ33:CQ35"/>
+    <mergeCell ref="CS33:CS35"/>
+    <mergeCell ref="AM33:AM35"/>
+    <mergeCell ref="AN33:AN35"/>
+    <mergeCell ref="AP33:AP35"/>
+    <mergeCell ref="CZ36:CZ37"/>
+    <mergeCell ref="BB36:BB37"/>
+    <mergeCell ref="BJ36:BJ37"/>
+    <mergeCell ref="BK36:BK37"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BN36:BN37"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BQ36:BQ37"/>
+    <mergeCell ref="BU36:BU37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AL36:AL37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AN36:AN37"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="DL36:DL37"/>
+    <mergeCell ref="DN36:DN37"/>
+    <mergeCell ref="DP36:DP37"/>
+    <mergeCell ref="DU36:DU37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="CG36:CG37"/>
+    <mergeCell ref="CO36:CO37"/>
+    <mergeCell ref="CP36:CP37"/>
+    <mergeCell ref="CQ36:CQ37"/>
+    <mergeCell ref="CS36:CS37"/>
+    <mergeCell ref="CT36:CT37"/>
+    <mergeCell ref="CU36:CU37"/>
+    <mergeCell ref="CV36:CV37"/>
+    <mergeCell ref="DU38:DU39"/>
+    <mergeCell ref="BN38:BN39"/>
+    <mergeCell ref="BO38:BO39"/>
+    <mergeCell ref="BP38:BP39"/>
+    <mergeCell ref="BQ38:BQ39"/>
+    <mergeCell ref="BU38:BU39"/>
+    <mergeCell ref="CG38:CG39"/>
+    <mergeCell ref="CO38:CO39"/>
+    <mergeCell ref="CP38:CP39"/>
+    <mergeCell ref="CQ38:CQ39"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="BB38:BB39"/>
+    <mergeCell ref="BJ38:BJ39"/>
+    <mergeCell ref="BK38:BK39"/>
+    <mergeCell ref="BL38:BL39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="CS38:CS39"/>
+    <mergeCell ref="CT38:CT39"/>
+    <mergeCell ref="CU38:CU39"/>
+    <mergeCell ref="CV38:CV39"/>
+    <mergeCell ref="CZ38:CZ39"/>
+    <mergeCell ref="DL38:DL39"/>
+    <mergeCell ref="DN38:DN39"/>
+    <mergeCell ref="DP38:DP39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AL38:AL39"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AN38:AN39"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="AB40:AB41"/>
+    <mergeCell ref="AD40:AD41"/>
+    <mergeCell ref="AF40:AF41"/>
+    <mergeCell ref="AI40:AI41"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AL40:AL41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="DN40:DN41"/>
+    <mergeCell ref="BK40:BK41"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BN40:BN41"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BQ40:BQ41"/>
+    <mergeCell ref="BU40:BU41"/>
+    <mergeCell ref="CG40:CG41"/>
+    <mergeCell ref="CO40:CO41"/>
+    <mergeCell ref="AM40:AM41"/>
+    <mergeCell ref="AN40:AN41"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AS40:AS41"/>
+    <mergeCell ref="AW40:AW41"/>
+    <mergeCell ref="BB40:BB41"/>
+    <mergeCell ref="BJ40:BJ41"/>
+    <mergeCell ref="DP40:DP41"/>
+    <mergeCell ref="DU40:DU41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="M42:M44"/>
+    <mergeCell ref="N42:N44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="P42:P44"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="S42:S44"/>
+    <mergeCell ref="T42:T44"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="Z42:Z44"/>
+    <mergeCell ref="AB42:AB44"/>
+    <mergeCell ref="CP40:CP41"/>
+    <mergeCell ref="CQ40:CQ41"/>
+    <mergeCell ref="CS40:CS41"/>
+    <mergeCell ref="CT40:CT41"/>
+    <mergeCell ref="CU40:CU41"/>
+    <mergeCell ref="CV40:CV41"/>
+    <mergeCell ref="CZ40:CZ41"/>
+    <mergeCell ref="DL40:DL41"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="BP42:BP44"/>
+    <mergeCell ref="BQ42:BQ44"/>
+    <mergeCell ref="BU42:BU44"/>
+    <mergeCell ref="CG42:CG44"/>
+    <mergeCell ref="CO42:CO44"/>
+    <mergeCell ref="CP42:CP44"/>
+    <mergeCell ref="CQ42:CQ44"/>
+    <mergeCell ref="CS42:CS44"/>
+    <mergeCell ref="CT42:CT44"/>
+    <mergeCell ref="AR42:AR44"/>
+    <mergeCell ref="AS42:AS44"/>
+    <mergeCell ref="AW42:AW44"/>
+    <mergeCell ref="BB42:BB44"/>
+    <mergeCell ref="BJ42:BJ44"/>
+    <mergeCell ref="BK42:BK44"/>
+    <mergeCell ref="BL42:BL44"/>
+    <mergeCell ref="BN42:BN44"/>
+    <mergeCell ref="BO42:BO44"/>
+    <mergeCell ref="AD42:AD44"/>
+    <mergeCell ref="AF42:AF44"/>
+    <mergeCell ref="AI42:AI44"/>
+    <mergeCell ref="AJ42:AJ44"/>
+    <mergeCell ref="AL42:AL44"/>
+    <mergeCell ref="AM42:AM44"/>
+    <mergeCell ref="AN42:AN44"/>
+    <mergeCell ref="AP42:AP44"/>
+    <mergeCell ref="AQ42:AQ44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="Z45:Z46"/>
+    <mergeCell ref="AB45:AB46"/>
+    <mergeCell ref="AD45:AD46"/>
+    <mergeCell ref="AF45:AF46"/>
+    <mergeCell ref="AI45:AI46"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="CU42:CU44"/>
+    <mergeCell ref="CV42:CV44"/>
+    <mergeCell ref="CZ42:CZ44"/>
+    <mergeCell ref="DL42:DL44"/>
+    <mergeCell ref="DN42:DN44"/>
+    <mergeCell ref="DP42:DP44"/>
+    <mergeCell ref="DU42:DU44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="DL45:DL46"/>
+    <mergeCell ref="BJ45:BJ46"/>
+    <mergeCell ref="BK45:BK46"/>
+    <mergeCell ref="BL45:BL46"/>
+    <mergeCell ref="BN45:BN46"/>
+    <mergeCell ref="BO45:BO46"/>
+    <mergeCell ref="BP45:BP46"/>
+    <mergeCell ref="BQ45:BQ46"/>
+    <mergeCell ref="BU45:BU46"/>
+    <mergeCell ref="CG45:CG46"/>
+    <mergeCell ref="AL45:AL46"/>
+    <mergeCell ref="AM45:AM46"/>
+    <mergeCell ref="AN45:AN46"/>
+    <mergeCell ref="AP45:AP46"/>
+    <mergeCell ref="AQ45:AQ46"/>
+    <mergeCell ref="AR45:AR46"/>
+    <mergeCell ref="AS45:AS46"/>
+    <mergeCell ref="AW45:AW46"/>
+    <mergeCell ref="BB45:BB46"/>
+    <mergeCell ref="DN45:DN46"/>
+    <mergeCell ref="DP45:DP46"/>
+    <mergeCell ref="DU45:DU46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="Z47:Z48"/>
+    <mergeCell ref="CO45:CO46"/>
+    <mergeCell ref="CP45:CP46"/>
+    <mergeCell ref="CQ45:CQ46"/>
+    <mergeCell ref="CS45:CS46"/>
+    <mergeCell ref="CT45:CT46"/>
+    <mergeCell ref="CU45:CU46"/>
+    <mergeCell ref="CV45:CV46"/>
+    <mergeCell ref="CZ45:CZ46"/>
+    <mergeCell ref="CS47:CS48"/>
+    <mergeCell ref="AQ47:AQ48"/>
+    <mergeCell ref="AR47:AR48"/>
+    <mergeCell ref="AS47:AS48"/>
+    <mergeCell ref="AW47:AW48"/>
+    <mergeCell ref="BB47:BB48"/>
+    <mergeCell ref="BJ47:BJ48"/>
+    <mergeCell ref="BK47:BK48"/>
+    <mergeCell ref="BL47:BL48"/>
+    <mergeCell ref="BN47:BN48"/>
+    <mergeCell ref="AB47:AB48"/>
+    <mergeCell ref="AD47:AD48"/>
+    <mergeCell ref="AF47:AF48"/>
+    <mergeCell ref="AI47:AI48"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AL47:AL48"/>
+    <mergeCell ref="AM47:AM48"/>
+    <mergeCell ref="AN47:AN48"/>
+    <mergeCell ref="AP47:AP48"/>
+    <mergeCell ref="CT47:CT48"/>
+    <mergeCell ref="CU47:CU48"/>
+    <mergeCell ref="CV47:CV48"/>
+    <mergeCell ref="CZ47:CZ48"/>
+    <mergeCell ref="DL47:DL48"/>
+    <mergeCell ref="DN47:DN48"/>
+    <mergeCell ref="DP47:DP48"/>
+    <mergeCell ref="DU47:DU48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="N49:N51"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="BO47:BO48"/>
+    <mergeCell ref="BP47:BP48"/>
+    <mergeCell ref="BQ47:BQ48"/>
+    <mergeCell ref="BU47:BU48"/>
+    <mergeCell ref="CG47:CG48"/>
+    <mergeCell ref="CO47:CO48"/>
+    <mergeCell ref="CP47:CP48"/>
+    <mergeCell ref="CQ47:CQ48"/>
+    <mergeCell ref="AJ49:AJ51"/>
+    <mergeCell ref="AL49:AL51"/>
+    <mergeCell ref="AM49:AM51"/>
+    <mergeCell ref="AN49:AN51"/>
+    <mergeCell ref="AP49:AP51"/>
+    <mergeCell ref="AQ49:AQ51"/>
+    <mergeCell ref="AR49:AR51"/>
+    <mergeCell ref="AS49:AS51"/>
+    <mergeCell ref="AW49:AW51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="T49:T51"/>
+    <mergeCell ref="U49:U51"/>
+    <mergeCell ref="Z49:Z51"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="AD49:AD51"/>
+    <mergeCell ref="AF49:AF51"/>
+    <mergeCell ref="AI49:AI51"/>
+    <mergeCell ref="DL49:DL51"/>
+    <mergeCell ref="DN49:DN51"/>
+    <mergeCell ref="DP49:DP51"/>
+    <mergeCell ref="DU49:DU51"/>
+    <mergeCell ref="CG49:CG51"/>
+    <mergeCell ref="CO49:CO51"/>
+    <mergeCell ref="CP49:CP51"/>
+    <mergeCell ref="CQ49:CQ51"/>
+    <mergeCell ref="CS49:CS51"/>
+    <mergeCell ref="CT49:CT51"/>
+    <mergeCell ref="CU49:CU51"/>
+    <mergeCell ref="CV49:CV51"/>
+    <mergeCell ref="CZ49:CZ51"/>
+    <mergeCell ref="BB49:BB51"/>
+    <mergeCell ref="BJ49:BJ51"/>
+    <mergeCell ref="BK49:BK51"/>
+    <mergeCell ref="BL49:BL51"/>
+    <mergeCell ref="BN49:BN51"/>
+    <mergeCell ref="BO49:BO51"/>
+    <mergeCell ref="BP49:BP51"/>
+    <mergeCell ref="BQ49:BQ51"/>
+    <mergeCell ref="BU49:BU51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{6B03F986-0B15-43D9-8BBA-ADCB0BDAF8FD}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{B4CF16C9-9E19-4BEA-8ECA-3FE597C0FD55}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{E4BC3F79-562C-4535-95E0-4E9AB607BAA7}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{CB0C1F57-AF2A-4AE5-92D2-A7479E9FE3B4}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{A9A6494D-00F0-4D59-B7D8-D7F2ED2CE032}"/>
-    <hyperlink ref="H13" r:id="rId6" xr:uid="{A91F515A-5CA2-4705-8904-945436B0FBEE}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{47DE5C20-149E-438F-B6FF-FD0AACE76BDE}"/>
-    <hyperlink ref="H17" r:id="rId8" xr:uid="{60DAC694-AF8A-42CE-BD24-9D1403D3631E}"/>
-    <hyperlink ref="H20" r:id="rId9" xr:uid="{6831468B-99E9-4D9B-823C-5017C4E019ED}"/>
-    <hyperlink ref="H22" r:id="rId10" xr:uid="{F1404BF9-8731-48B4-A33A-08E6B981CAFC}"/>
-    <hyperlink ref="H24" r:id="rId11" xr:uid="{85E5B72A-FA31-4FC5-AB41-40D0725F268E}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{1FF94EBF-4C93-48BB-8882-4A77C658C354}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{0874E318-355B-46FD-9D2E-5BCECAEBE4FA}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{62530180-44FD-4501-8A1C-5F8C2FB76492}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{21D7D552-F270-44F9-A830-A33B7833E85D}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{FDF6BCA9-6DB8-4405-97F0-23E4F61ECD62}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{022C8A23-BD8A-47D5-B156-6F7B98D5B70F}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{78C2A858-EA25-4CD5-A294-A32A7D3FF451}"/>
+    <hyperlink ref="H17" r:id="rId8" xr:uid="{544EA8E3-3F8C-4DB7-A72F-F270E95D10C3}"/>
+    <hyperlink ref="H20" r:id="rId9" xr:uid="{3BDBA402-C163-41BD-AF12-407F367096CD}"/>
+    <hyperlink ref="H22" r:id="rId10" xr:uid="{7246C369-04F3-4778-86BB-C52463E5CA77}"/>
+    <hyperlink ref="H24" r:id="rId11" xr:uid="{BF58E0D6-E4E7-4860-8602-27CD53A404B1}"/>
+    <hyperlink ref="H27" r:id="rId12" xr:uid="{E825441B-9DAF-41A8-8B3C-CA99127F33FE}"/>
+    <hyperlink ref="H29" r:id="rId13" xr:uid="{DFE7B6FD-8DBF-4343-8760-573673044F8C}"/>
+    <hyperlink ref="H31" r:id="rId14" xr:uid="{CFF1CE82-FD66-4857-9F67-31026E49E1D1}"/>
+    <hyperlink ref="H33" r:id="rId15" xr:uid="{32FEF501-CC80-4C6D-AED2-66E5ACE7C2C6}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{F564D93E-3D53-4009-93A0-ADE32CA91F06}"/>
+    <hyperlink ref="H38" r:id="rId17" xr:uid="{0644CCEF-001D-4B06-B0D9-2027E031843F}"/>
+    <hyperlink ref="H40" r:id="rId18" xr:uid="{62014C21-CFB1-43BE-BCCB-E1FC9E270A14}"/>
+    <hyperlink ref="H42" r:id="rId19" xr:uid="{CB39E898-76D1-4EC5-8B86-CFB903C8A0DA}"/>
+    <hyperlink ref="H45" r:id="rId20" xr:uid="{C9152B7B-F5B8-47D1-9211-DF61B3F73202}"/>
+    <hyperlink ref="H47" r:id="rId21" xr:uid="{43DCDFE8-EE1A-4AF5-903C-286C7C0CACD7}"/>
+    <hyperlink ref="H49" r:id="rId22" xr:uid="{7FD9F8EA-DE75-4842-B1FE-471131808EDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
